--- a/console/Networking/diskChExcel/diskSnapshotMixins/components/shareSnapshot/ListItem.xlsx
+++ b/console/Networking/diskChExcel/diskSnapshotMixins/components/shareSnapshot/ListItem.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinyonghua\Desktop\translation_review\diskChExcel\diskSnapshotMixins\components\shareSnapshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -93,9 +93,6 @@
     </r>
   </si>
   <si>
-    <t>'The quota of resources of the chosen region is full, please switch the region or open ticket and increase quota.'</t>
-  </si>
-  <si>
     <t>ListItem_i18nKey_4</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     </r>
   </si>
   <si>
-    <t>'Only the normal snapshot supports replication'</t>
-  </si>
-  <si>
     <t>ListItem_i18nKey_5</t>
   </si>
   <si>
@@ -140,13 +134,21 @@
   </si>
   <si>
     <t>Copy</t>
+  </si>
+  <si>
+    <t>The quota of resources of the chosen region is full, please switch the region or open ticket for increasing quota.'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only normal snapshots support replication'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +175,12 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,9 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,15 +552,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="40.59765625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="40.625" style="1"/>
+    <col min="1" max="16384" width="40.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -571,37 +582,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
